--- a/thermax_backend/templates/local_isolator_specification_template.xlsx
+++ b/thermax_backend/templates/local_isolator_specification_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8AD436-A791-42EB-AA41-F0312D909049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C554C52-FB30-4AFF-B2FF-719393A3142E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1130,6 +1130,42 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1181,56 +1217,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1244,23 +1247,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2485,50 +2485,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
@@ -2542,76 +2542,76 @@
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="80"/>
+      <c r="D6" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" s="16" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2875,6 +2875,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="B11:C11"/>
@@ -2885,12 +2891,6 @@
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="100" orientation="portrait" r:id="rId1"/>
@@ -2921,12 +2921,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -3022,12 +3022,12 @@
       <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
       <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
@@ -3036,162 +3036,172 @@
       <c r="A12" s="48">
         <v>1</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="48">
         <v>2</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="48">
         <v>3</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="48">
         <v>4</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48">
         <v>5</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
     </row>
     <row r="17" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="48">
         <v>6</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48">
         <v>7</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48">
         <v>8</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="48">
         <v>9</v>
       </c>
-      <c r="B20" s="93" t="s">
+      <c r="B20" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="53">
         <v>10</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="53">
         <v>11</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="53">
         <v>12</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="53">
         <v>13</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="53">
         <v>14</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="53">
         <v>1</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -3200,16 +3210,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="100" orientation="portrait" r:id="rId1"/>
